--- a/eval.xlsx
+++ b/eval.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\D\NU\tile2tile\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E38B41F-EE9C-4D5E-A06E-5E91BA3A82AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{619446E4-6905-4DA9-8169-E7F252BAB85C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Playability" sheetId="1" r:id="rId1"/>
-    <sheet name="TPKLDiv" sheetId="2" r:id="rId2"/>
+    <sheet name="APKLDiv" sheetId="2" r:id="rId2"/>
+    <sheet name="Tile Hist" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="58">
   <si>
     <t>SMB</t>
   </si>
@@ -46,20 +47,193 @@
     <t>Met</t>
   </si>
   <si>
-    <t>From-Play</t>
-  </si>
-  <si>
-    <t>To-Play</t>
+    <t>ki</t>
+  </si>
+  <si>
+    <t>mm</t>
+  </si>
+  <si>
+    <t>met</t>
+  </si>
+  <si>
+    <t>SMB-8</t>
+  </si>
+  <si>
+    <t>TFT vs OGS</t>
+  </si>
+  <si>
+    <t>TFT vs OGT</t>
+  </si>
+  <si>
+    <t>OGT vs OGS</t>
+  </si>
+  <si>
+    <t>SMB-16</t>
+  </si>
+  <si>
+    <t>SMB-32</t>
+  </si>
+  <si>
+    <t>SMB-64</t>
+  </si>
+  <si>
+    <t>SMB-128</t>
+  </si>
+  <si>
+    <t>SMB-256</t>
+  </si>
+  <si>
+    <t>smb</t>
+  </si>
+  <si>
+    <t>KI-8</t>
+  </si>
+  <si>
+    <t>KI-16</t>
+  </si>
+  <si>
+    <t>KI-32</t>
+  </si>
+  <si>
+    <t>KI-64</t>
+  </si>
+  <si>
+    <t>KI-128</t>
+  </si>
+  <si>
+    <t>KI-256</t>
+  </si>
+  <si>
+    <t>MM-8</t>
+  </si>
+  <si>
+    <t>MM-16</t>
+  </si>
+  <si>
+    <t>MM-32</t>
+  </si>
+  <si>
+    <t>MM-64</t>
+  </si>
+  <si>
+    <t>MM-128</t>
+  </si>
+  <si>
+    <t>MM-256</t>
+  </si>
+  <si>
+    <t>MET-8</t>
+  </si>
+  <si>
+    <t>MET-16</t>
+  </si>
+  <si>
+    <t>MET-32</t>
+  </si>
+  <si>
+    <t>MET-64</t>
+  </si>
+  <si>
+    <t>MET-128</t>
+  </si>
+  <si>
+    <t>MET-256</t>
+  </si>
+  <si>
+    <t>MRF-4</t>
+  </si>
+  <si>
+    <t>SMB-KI</t>
+  </si>
+  <si>
+    <t>SMB-MM</t>
+  </si>
+  <si>
+    <t>SMB-Met</t>
+  </si>
+  <si>
+    <t>KI-SMB</t>
+  </si>
+  <si>
+    <t>KI-MM</t>
+  </si>
+  <si>
+    <t>KI-Met</t>
+  </si>
+  <si>
+    <t>MM-SMB</t>
+  </si>
+  <si>
+    <t>MM-KI</t>
+  </si>
+  <si>
+    <t>MM-Met</t>
+  </si>
+  <si>
+    <t>Met-SMB</t>
+  </si>
+  <si>
+    <t>Met-KI</t>
+  </si>
+  <si>
+    <t>Met-MM</t>
+  </si>
+  <si>
+    <t>MRF-8</t>
+  </si>
+  <si>
+    <t>AE</t>
+  </si>
+  <si>
+    <t>AE-256</t>
+  </si>
+  <si>
+    <t>AE-128</t>
+  </si>
+  <si>
+    <t>H</t>
+  </si>
+  <si>
+    <t>V</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>AE-64</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -85,8 +259,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -367,98 +546,700 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:Q14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="J25" sqref="J25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="5" max="5" width="8.88671875" style="4"/>
+    <col min="8" max="8" width="8.88671875" style="4"/>
+    <col min="11" max="11" width="8.88671875" style="4"/>
+    <col min="14" max="14" width="8.88671875" style="4"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="C1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F1" t="s">
+        <v>50</v>
+      </c>
+      <c r="I1" t="s">
+        <v>52</v>
+      </c>
+      <c r="L1" t="s">
+        <v>53</v>
+      </c>
+      <c r="O1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B2" t="s">
         <v>2</v>
       </c>
-      <c r="C1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="C2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="F2" t="s">
+        <v>54</v>
+      </c>
+      <c r="G2" t="s">
+        <v>55</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="I2" t="s">
+        <v>54</v>
+      </c>
+      <c r="J2" t="s">
+        <v>55</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="L2" t="s">
+        <v>54</v>
+      </c>
+      <c r="M2" t="s">
+        <v>55</v>
+      </c>
+      <c r="N2" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="O2" t="s">
+        <v>54</v>
+      </c>
+      <c r="P2" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
         <v>3</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B3" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+      <c r="C3">
+        <v>72.5</v>
+      </c>
+      <c r="D3">
+        <v>18.75</v>
+      </c>
+      <c r="E3" s="4">
+        <v>75</v>
+      </c>
+      <c r="F3">
+        <v>67.5</v>
+      </c>
+      <c r="G3">
+        <v>5</v>
+      </c>
+      <c r="H3" s="4">
+        <v>67.5</v>
+      </c>
+      <c r="I3">
+        <v>75</v>
+      </c>
+      <c r="J3">
+        <v>26.25</v>
+      </c>
+      <c r="K3" s="4">
+        <v>75</v>
+      </c>
+      <c r="L3">
+        <v>81.25</v>
+      </c>
+      <c r="M3">
+        <v>37.5</v>
+      </c>
+      <c r="N3" s="5">
+        <v>81.25</v>
+      </c>
+      <c r="O3">
+        <v>67.5</v>
+      </c>
+      <c r="P3">
+        <v>38.75</v>
+      </c>
+      <c r="Q3">
+        <v>67.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+      <c r="C4">
+        <v>38.46</v>
+      </c>
+      <c r="D4">
+        <v>5.6</v>
+      </c>
+      <c r="E4" s="4">
+        <v>39.86</v>
+      </c>
+      <c r="F4">
+        <v>43.36</v>
+      </c>
+      <c r="G4">
+        <v>2.1</v>
+      </c>
+      <c r="H4" s="4">
+        <v>43.36</v>
+      </c>
+      <c r="I4">
+        <v>76.92</v>
+      </c>
+      <c r="J4">
+        <v>15.39</v>
+      </c>
+      <c r="K4" s="4">
+        <v>77.62</v>
+      </c>
+      <c r="L4">
+        <v>80.42</v>
+      </c>
+      <c r="M4">
+        <v>18.18</v>
+      </c>
+      <c r="N4" s="5">
+        <v>80.42</v>
+      </c>
+      <c r="O4">
+        <v>76.22</v>
+      </c>
+      <c r="P4">
+        <v>22.38</v>
+      </c>
+      <c r="Q4">
+        <v>76.22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+      <c r="C5">
+        <v>32.26</v>
+      </c>
+      <c r="D5">
+        <v>1.61</v>
+      </c>
+      <c r="E5" s="4">
+        <v>33.07</v>
+      </c>
+      <c r="F5">
+        <v>30.44</v>
+      </c>
+      <c r="G5">
+        <v>3.43</v>
+      </c>
+      <c r="H5" s="4">
+        <v>31.65</v>
+      </c>
+      <c r="I5">
+        <v>78.849999999999994</v>
+      </c>
+      <c r="J5">
+        <v>9.66</v>
+      </c>
+      <c r="K5" s="5">
+        <v>79.540000000000006</v>
+      </c>
+      <c r="L5">
+        <v>72.87</v>
+      </c>
+      <c r="M5">
+        <v>9.43</v>
+      </c>
+      <c r="N5" s="4">
+        <v>72.87</v>
+      </c>
+      <c r="O5">
+        <v>66.44</v>
+      </c>
+      <c r="P5">
+        <v>13.1</v>
+      </c>
+      <c r="Q5">
+        <v>66.67</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
         <v>0</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B6" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+      <c r="C6">
+        <v>75</v>
+      </c>
+      <c r="D6">
+        <v>4.55</v>
+      </c>
+      <c r="E6" s="5">
+        <v>75.569999999999993</v>
+      </c>
+      <c r="F6">
+        <v>71.59</v>
+      </c>
+      <c r="G6">
+        <v>4.55</v>
+      </c>
+      <c r="H6" s="4">
+        <v>71.59</v>
+      </c>
+      <c r="I6">
+        <v>60.23</v>
+      </c>
+      <c r="J6">
+        <v>6.82</v>
+      </c>
+      <c r="K6" s="4">
+        <v>60.8</v>
+      </c>
+      <c r="L6">
+        <v>62.5</v>
+      </c>
+      <c r="M6">
+        <v>6.82</v>
+      </c>
+      <c r="N6" s="4">
+        <v>62.5</v>
+      </c>
+      <c r="O6">
+        <v>56.82</v>
+      </c>
+      <c r="P6">
+        <v>5.1100000000000003</v>
+      </c>
+      <c r="Q6">
+        <v>57.96</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+      <c r="C7">
+        <v>42.66</v>
+      </c>
+      <c r="D7">
+        <v>8.39</v>
+      </c>
+      <c r="E7" s="4">
+        <v>44.76</v>
+      </c>
+      <c r="F7">
+        <v>46.15</v>
+      </c>
+      <c r="G7">
+        <v>6.29</v>
+      </c>
+      <c r="H7" s="4">
+        <v>46.85</v>
+      </c>
+      <c r="I7">
+        <v>45.45</v>
+      </c>
+      <c r="J7">
+        <v>9.09</v>
+      </c>
+      <c r="K7" s="4">
+        <v>48.25</v>
+      </c>
+      <c r="L7">
+        <v>47.55</v>
+      </c>
+      <c r="M7">
+        <v>7.69</v>
+      </c>
+      <c r="N7" s="5">
+        <v>49.65</v>
+      </c>
+      <c r="O7">
+        <v>39.86</v>
+      </c>
+      <c r="P7">
+        <v>3.5</v>
+      </c>
+      <c r="Q7">
+        <v>42.66</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
+      <c r="C8">
+        <v>47.78</v>
+      </c>
+      <c r="D8">
+        <v>4.84</v>
+      </c>
+      <c r="E8" s="5">
+        <v>48.79</v>
+      </c>
+      <c r="F8">
+        <v>45.57</v>
+      </c>
+      <c r="G8">
+        <v>2.82</v>
+      </c>
+      <c r="H8" s="4">
+        <v>46.37</v>
+      </c>
+      <c r="I8">
+        <v>39.31</v>
+      </c>
+      <c r="J8">
+        <v>1.61</v>
+      </c>
+      <c r="K8" s="4">
+        <v>39.31</v>
+      </c>
+      <c r="L8">
+        <v>32.869999999999997</v>
+      </c>
+      <c r="M8">
         <v>0</v>
       </c>
-      <c r="B8" t="s">
+      <c r="N8" s="4">
+        <v>32.869999999999997</v>
+      </c>
+      <c r="O8">
+        <v>36.32</v>
+      </c>
+      <c r="P8">
+        <v>1.61</v>
+      </c>
+      <c r="Q8">
+        <v>36.32</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
+      <c r="C9">
+        <v>71.34</v>
+      </c>
+      <c r="D9">
+        <v>2.44</v>
+      </c>
+      <c r="E9" s="5">
+        <v>71.34</v>
+      </c>
+      <c r="F9">
+        <v>68.180000000000007</v>
+      </c>
+      <c r="G9">
+        <v>2.27</v>
+      </c>
+      <c r="H9" s="4">
+        <v>68.180000000000007</v>
+      </c>
+      <c r="I9">
+        <v>63.64</v>
+      </c>
+      <c r="J9">
+        <v>3.41</v>
+      </c>
+      <c r="K9" s="4">
+        <v>64.209999999999994</v>
+      </c>
+      <c r="L9">
+        <v>58.52</v>
+      </c>
+      <c r="M9">
+        <v>3.98</v>
+      </c>
+      <c r="N9" s="4">
+        <v>59.09</v>
+      </c>
+      <c r="O9">
+        <v>56.82</v>
+      </c>
+      <c r="P9">
+        <v>3.41</v>
+      </c>
+      <c r="Q9">
+        <v>57.39</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
+      <c r="C10">
+        <v>67.95</v>
+      </c>
+      <c r="D10">
+        <v>11.54</v>
+      </c>
+      <c r="E10" s="5">
+        <v>69.23</v>
+      </c>
+      <c r="F10">
+        <v>63.75</v>
+      </c>
+      <c r="G10">
+        <v>12.5</v>
+      </c>
+      <c r="H10" s="4">
+        <v>63.75</v>
+      </c>
+      <c r="I10">
+        <v>62.5</v>
+      </c>
+      <c r="J10">
+        <v>8.75</v>
+      </c>
+      <c r="K10" s="4">
+        <v>67.5</v>
+      </c>
+      <c r="L10">
+        <v>56.25</v>
+      </c>
+      <c r="M10">
+        <v>8.75</v>
+      </c>
+      <c r="N10" s="4">
+        <v>60</v>
+      </c>
+      <c r="O10">
+        <v>58.75</v>
+      </c>
+      <c r="P10">
+        <v>12.5</v>
+      </c>
+      <c r="Q10">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
+      <c r="C11">
+        <v>32</v>
+      </c>
+      <c r="D11">
+        <v>3.79</v>
+      </c>
+      <c r="E11" s="4">
+        <v>32.630000000000003</v>
+      </c>
+      <c r="F11">
+        <v>32.26</v>
+      </c>
+      <c r="G11">
+        <v>4.2300000000000004</v>
+      </c>
+      <c r="H11" s="4">
+        <v>33.47</v>
+      </c>
+      <c r="I11">
+        <v>46.21</v>
+      </c>
+      <c r="J11">
+        <v>10.81</v>
+      </c>
+      <c r="K11" s="5">
+        <v>48.28</v>
+      </c>
+      <c r="L11">
+        <v>35.630000000000003</v>
+      </c>
+      <c r="M11">
+        <v>3.22</v>
+      </c>
+      <c r="N11" s="4">
+        <v>38.39</v>
+      </c>
+      <c r="O11">
+        <v>42.99</v>
+      </c>
+      <c r="P11">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="Q11">
+        <v>44.14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
         <v>0</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B12" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
+      <c r="C12">
+        <v>84.57</v>
+      </c>
+      <c r="D12">
+        <v>22.84</v>
+      </c>
+      <c r="E12" s="5">
+        <v>85.8</v>
+      </c>
+      <c r="F12">
+        <v>80.680000000000007</v>
+      </c>
+      <c r="G12">
+        <v>20.46</v>
+      </c>
+      <c r="H12" s="4">
+        <v>81.25</v>
+      </c>
+      <c r="I12">
+        <v>61.36</v>
+      </c>
+      <c r="J12">
+        <v>22.16</v>
+      </c>
+      <c r="K12" s="4">
+        <v>63.07</v>
+      </c>
+      <c r="L12">
+        <v>59.09</v>
+      </c>
+      <c r="M12">
+        <v>21.59</v>
+      </c>
+      <c r="N12" s="4">
+        <v>60.23</v>
+      </c>
+      <c r="O12">
+        <v>59.66</v>
+      </c>
+      <c r="P12">
+        <v>24.43</v>
+      </c>
+      <c r="Q12">
+        <v>60.23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
+      <c r="C13">
+        <v>70.89</v>
+      </c>
+      <c r="D13">
+        <v>12.66</v>
+      </c>
+      <c r="E13" s="4">
+        <v>72.150000000000006</v>
+      </c>
+      <c r="F13">
+        <v>73.75</v>
+      </c>
+      <c r="G13">
+        <v>7.5</v>
+      </c>
+      <c r="H13" s="5">
+        <v>73.75</v>
+      </c>
+      <c r="I13">
+        <v>60</v>
+      </c>
+      <c r="J13">
+        <v>26.25</v>
+      </c>
+      <c r="K13" s="4">
+        <v>65</v>
+      </c>
+      <c r="L13">
+        <v>56.25</v>
+      </c>
+      <c r="M13">
+        <v>27.5</v>
+      </c>
+      <c r="N13" s="4">
+        <v>61.25</v>
+      </c>
+      <c r="O13">
+        <v>61.25</v>
+      </c>
+      <c r="P13">
+        <v>23.75</v>
+      </c>
+      <c r="Q13">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
         <v>4</v>
+      </c>
+      <c r="C14">
+        <v>45.16</v>
+      </c>
+      <c r="D14">
+        <v>8.07</v>
+      </c>
+      <c r="E14" s="4">
+        <v>46.77</v>
+      </c>
+      <c r="F14">
+        <v>49.65</v>
+      </c>
+      <c r="G14">
+        <v>16.78</v>
+      </c>
+      <c r="H14" s="4">
+        <v>52.45</v>
+      </c>
+      <c r="I14">
+        <v>50.35</v>
+      </c>
+      <c r="J14">
+        <v>20.28</v>
+      </c>
+      <c r="K14" s="4">
+        <v>60.14</v>
+      </c>
+      <c r="L14">
+        <v>50.35</v>
+      </c>
+      <c r="M14">
+        <v>23.78</v>
+      </c>
+      <c r="N14" s="5">
+        <v>61.54</v>
+      </c>
+      <c r="O14">
+        <v>53.15</v>
+      </c>
+      <c r="P14">
+        <v>20.28</v>
+      </c>
+      <c r="Q14">
+        <v>62.24</v>
       </c>
     </row>
   </sheetData>
@@ -468,14 +1249,1237 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88E849DD-2ECA-4768-9A44-FD23AE64DC2B}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:S24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" t="s">
+        <v>12</v>
+      </c>
+      <c r="P1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>10</v>
+      </c>
+      <c r="R1" t="s">
+        <v>11</v>
+      </c>
+      <c r="S1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2">
+        <v>1.58</v>
+      </c>
+      <c r="C2" s="1">
+        <v>1.3</v>
+      </c>
+      <c r="D2">
+        <v>2.0499999999999998</v>
+      </c>
+      <c r="F2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2" s="1">
+        <v>0.63</v>
+      </c>
+      <c r="H2">
+        <v>0.86</v>
+      </c>
+      <c r="I2">
+        <v>2.58</v>
+      </c>
+      <c r="K2" t="s">
+        <v>18</v>
+      </c>
+      <c r="L2" s="1">
+        <v>0.63</v>
+      </c>
+      <c r="M2">
+        <v>1.01</v>
+      </c>
+      <c r="N2">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="P2" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q2" s="1">
+        <v>0.39</v>
+      </c>
+      <c r="R2">
+        <v>1.21</v>
+      </c>
+      <c r="S2">
+        <v>2.97</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3">
+        <v>1.91</v>
+      </c>
+      <c r="C3" s="1">
+        <v>1.67</v>
+      </c>
+      <c r="D3">
+        <v>1.9</v>
+      </c>
+      <c r="F3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G3">
+        <v>2.63</v>
+      </c>
+      <c r="H3">
+        <v>2.27</v>
+      </c>
+      <c r="I3" s="1">
+        <v>2.2200000000000002</v>
+      </c>
+      <c r="K3" t="s">
+        <v>6</v>
+      </c>
+      <c r="L3" s="1">
+        <v>1.95</v>
+      </c>
+      <c r="M3">
+        <v>2.6</v>
+      </c>
+      <c r="N3">
+        <v>3.06</v>
+      </c>
+      <c r="P3" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q3" s="1">
+        <v>1.38</v>
+      </c>
+      <c r="R3">
+        <v>2.54</v>
+      </c>
+      <c r="S3">
+        <v>2.37</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4">
+        <v>2.46</v>
+      </c>
+      <c r="C4" s="1">
+        <v>1.84</v>
+      </c>
+      <c r="D4">
+        <v>2.08</v>
+      </c>
+      <c r="F4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G4">
+        <v>3.53</v>
+      </c>
+      <c r="H4" s="1">
+        <v>2.4900000000000002</v>
+      </c>
+      <c r="I4">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="K4" t="s">
+        <v>8</v>
+      </c>
+      <c r="L4">
+        <v>1.6</v>
+      </c>
+      <c r="M4" s="1">
+        <v>1.46</v>
+      </c>
+      <c r="N4">
+        <v>3.16</v>
+      </c>
+      <c r="P4" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q4" s="1">
+        <v>1.47</v>
+      </c>
+      <c r="R4">
+        <v>1.7</v>
+      </c>
+      <c r="S4">
+        <v>2.27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" t="s">
+        <v>20</v>
+      </c>
+      <c r="K5" t="s">
+        <v>26</v>
+      </c>
+      <c r="P5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="1">
+        <v>1.27</v>
+      </c>
+      <c r="C6">
+        <v>1.49</v>
+      </c>
+      <c r="D6">
+        <v>2.0499999999999998</v>
+      </c>
+      <c r="F6" t="s">
+        <v>18</v>
+      </c>
+      <c r="G6" s="1">
+        <v>0.43</v>
+      </c>
+      <c r="H6">
+        <v>0.83</v>
+      </c>
+      <c r="I6">
+        <v>2.58</v>
+      </c>
+      <c r="K6" t="s">
+        <v>18</v>
+      </c>
+      <c r="L6" s="1">
+        <v>0.44</v>
+      </c>
+      <c r="M6">
+        <v>0.91</v>
+      </c>
+      <c r="N6">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="P6" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q6" s="1">
+        <v>0.27</v>
+      </c>
+      <c r="R6">
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="S6">
+        <v>2.97</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7">
+        <v>1.97</v>
+      </c>
+      <c r="C7">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="D7" s="1">
+        <v>1.9</v>
+      </c>
+      <c r="F7" t="s">
+        <v>7</v>
+      </c>
+      <c r="G7">
+        <v>2.64</v>
+      </c>
+      <c r="H7">
+        <v>2.36</v>
+      </c>
+      <c r="I7" s="1">
+        <v>2.2200000000000002</v>
+      </c>
+      <c r="K7" t="s">
+        <v>6</v>
+      </c>
+      <c r="L7" s="1">
+        <v>0.92</v>
+      </c>
+      <c r="M7">
+        <v>1.74</v>
+      </c>
+      <c r="N7">
+        <v>3.06</v>
+      </c>
+      <c r="P7" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q7" s="1">
+        <v>0.92</v>
+      </c>
+      <c r="R7">
+        <v>2.29</v>
+      </c>
+      <c r="S7">
+        <v>2.37</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="2">
+        <v>2.2599999999999998</v>
+      </c>
+      <c r="C8">
+        <v>2.38</v>
+      </c>
+      <c r="D8" s="1">
+        <v>2.08</v>
+      </c>
+      <c r="F8" t="s">
+        <v>8</v>
+      </c>
+      <c r="G8">
+        <v>3.42</v>
+      </c>
+      <c r="H8">
+        <v>2.67</v>
+      </c>
+      <c r="I8" s="1">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="K8" t="s">
+        <v>8</v>
+      </c>
+      <c r="L8" s="1">
+        <v>1.06</v>
+      </c>
+      <c r="M8">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="N8">
+        <v>3.16</v>
+      </c>
+      <c r="P8" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q8" s="1">
+        <v>1.06</v>
+      </c>
+      <c r="R8">
+        <v>1.44</v>
+      </c>
+      <c r="S8">
+        <v>2.27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F9" t="s">
+        <v>21</v>
+      </c>
+      <c r="K9" t="s">
+        <v>27</v>
+      </c>
+      <c r="P9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" s="1">
+        <v>0.88</v>
+      </c>
+      <c r="C10">
+        <v>1.46</v>
+      </c>
+      <c r="D10">
+        <v>2.0499999999999998</v>
+      </c>
+      <c r="F10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G10" s="1">
+        <v>0.39</v>
+      </c>
+      <c r="H10">
+        <v>0.86</v>
+      </c>
+      <c r="I10">
+        <v>2.58</v>
+      </c>
+      <c r="K10" t="s">
+        <v>18</v>
+      </c>
+      <c r="L10" s="1">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="M10">
+        <v>1.06</v>
+      </c>
+      <c r="N10">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="P10" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q10" s="1">
+        <v>0.21</v>
+      </c>
+      <c r="R10">
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="S10">
+        <v>2.97</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11" s="1">
+        <v>1.56</v>
+      </c>
+      <c r="C11">
+        <v>2.11</v>
+      </c>
+      <c r="D11">
+        <v>1.9</v>
+      </c>
+      <c r="F11" t="s">
+        <v>7</v>
+      </c>
+      <c r="G11">
+        <v>2.31</v>
+      </c>
+      <c r="H11">
+        <v>2.35</v>
+      </c>
+      <c r="I11" s="1">
+        <v>2.2200000000000002</v>
+      </c>
+      <c r="K11" t="s">
+        <v>6</v>
+      </c>
+      <c r="L11" s="1">
+        <v>0.63</v>
+      </c>
+      <c r="M11">
+        <v>1.74</v>
+      </c>
+      <c r="N11">
+        <v>3.06</v>
+      </c>
+      <c r="P11" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q11" s="1">
+        <v>0.59</v>
+      </c>
+      <c r="R11">
+        <v>2.1800000000000002</v>
+      </c>
+      <c r="S11">
+        <v>2.37</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" s="1">
+        <v>1.6</v>
+      </c>
+      <c r="C12">
+        <v>2.0299999999999998</v>
+      </c>
+      <c r="D12">
+        <v>2.08</v>
+      </c>
+      <c r="F12" t="s">
+        <v>8</v>
+      </c>
+      <c r="G12">
+        <v>2.8</v>
+      </c>
+      <c r="H12" s="1">
+        <v>2.5299999999999998</v>
+      </c>
+      <c r="I12">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="K12" t="s">
+        <v>8</v>
+      </c>
+      <c r="L12" s="1">
+        <v>0.92</v>
+      </c>
+      <c r="M12">
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="N12">
+        <v>3.16</v>
+      </c>
+      <c r="P12" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q12" s="1">
+        <v>1.03</v>
+      </c>
+      <c r="R12">
+        <v>1.54</v>
+      </c>
+      <c r="S12">
+        <v>2.27</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>15</v>
+      </c>
+      <c r="F13" t="s">
+        <v>22</v>
+      </c>
+      <c r="K13" t="s">
+        <v>28</v>
+      </c>
+      <c r="P13" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>6</v>
+      </c>
+      <c r="B14" s="1">
+        <v>0.84</v>
+      </c>
+      <c r="C14">
+        <v>1.48</v>
+      </c>
+      <c r="D14">
+        <v>2.0499999999999998</v>
+      </c>
+      <c r="F14" t="s">
+        <v>18</v>
+      </c>
+      <c r="G14" s="1">
+        <v>0.35</v>
+      </c>
+      <c r="H14">
+        <v>0.87</v>
+      </c>
+      <c r="I14">
+        <v>2.58</v>
+      </c>
+      <c r="K14" t="s">
+        <v>18</v>
+      </c>
+      <c r="L14" s="1">
+        <v>0.48</v>
+      </c>
+      <c r="M14">
+        <v>1.04</v>
+      </c>
+      <c r="N14">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="P14" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q14" s="1">
+        <v>0.18</v>
+      </c>
+      <c r="R14">
+        <v>1.1599999999999999</v>
+      </c>
+      <c r="S14">
+        <v>2.97</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>7</v>
+      </c>
+      <c r="B15" s="1">
+        <v>1.46</v>
+      </c>
+      <c r="C15">
+        <v>2.02</v>
+      </c>
+      <c r="D15">
+        <v>1.9</v>
+      </c>
+      <c r="F15" t="s">
+        <v>7</v>
+      </c>
+      <c r="G15" s="1">
+        <v>1.92</v>
+      </c>
+      <c r="H15">
+        <v>2.2799999999999998</v>
+      </c>
+      <c r="I15">
+        <v>2.2200000000000002</v>
+      </c>
+      <c r="K15" t="s">
+        <v>6</v>
+      </c>
+      <c r="L15" s="1">
+        <v>0.47</v>
+      </c>
+      <c r="M15">
+        <v>1.77</v>
+      </c>
+      <c r="N15">
+        <v>3.06</v>
+      </c>
+      <c r="P15" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q15" s="1">
+        <v>0.46</v>
+      </c>
+      <c r="R15">
+        <v>2.2400000000000002</v>
+      </c>
+      <c r="S15">
+        <v>2.37</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>8</v>
+      </c>
+      <c r="B16" s="1">
+        <v>1.45</v>
+      </c>
+      <c r="C16">
+        <v>1.99</v>
+      </c>
+      <c r="D16">
+        <v>2.08</v>
+      </c>
+      <c r="F16" t="s">
+        <v>8</v>
+      </c>
+      <c r="G16" s="1">
+        <v>2.23</v>
+      </c>
+      <c r="H16">
+        <v>2.35</v>
+      </c>
+      <c r="I16">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="K16" t="s">
+        <v>8</v>
+      </c>
+      <c r="L16" s="1">
+        <v>0.77</v>
+      </c>
+      <c r="M16">
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="N16">
+        <v>3.16</v>
+      </c>
+      <c r="P16" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q16" s="1">
+        <v>1</v>
+      </c>
+      <c r="R16">
+        <v>1.61</v>
+      </c>
+      <c r="S16">
+        <v>2.27</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>16</v>
+      </c>
+      <c r="F17" t="s">
+        <v>23</v>
+      </c>
+      <c r="K17" t="s">
+        <v>29</v>
+      </c>
+      <c r="P17" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>6</v>
+      </c>
+      <c r="B18" s="1">
+        <v>0.74</v>
+      </c>
+      <c r="C18">
+        <v>1.53</v>
+      </c>
+      <c r="D18">
+        <v>2.0499999999999998</v>
+      </c>
+      <c r="F18" t="s">
+        <v>18</v>
+      </c>
+      <c r="G18" s="1">
+        <v>0.32</v>
+      </c>
+      <c r="H18">
+        <v>0.88</v>
+      </c>
+      <c r="I18">
+        <v>2.58</v>
+      </c>
+      <c r="K18" t="s">
+        <v>18</v>
+      </c>
+      <c r="L18" s="1">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="M18">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="N18">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="P18" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q18" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="R18">
+        <v>1.19</v>
+      </c>
+      <c r="S18">
+        <v>2.97</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>7</v>
+      </c>
+      <c r="B19" s="1">
+        <v>1.41</v>
+      </c>
+      <c r="C19">
+        <v>2.16</v>
+      </c>
+      <c r="D19">
+        <v>1.9</v>
+      </c>
+      <c r="F19" t="s">
+        <v>7</v>
+      </c>
+      <c r="G19" s="1">
+        <v>1.86</v>
+      </c>
+      <c r="H19">
+        <v>2.27</v>
+      </c>
+      <c r="I19">
+        <v>2.2200000000000002</v>
+      </c>
+      <c r="K19" t="s">
+        <v>6</v>
+      </c>
+      <c r="L19" s="1">
+        <v>0.42</v>
+      </c>
+      <c r="M19">
+        <v>1.81</v>
+      </c>
+      <c r="N19">
+        <v>3.06</v>
+      </c>
+      <c r="P19" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q19" s="1">
+        <v>0.39</v>
+      </c>
+      <c r="R19">
+        <v>2.27</v>
+      </c>
+      <c r="S19">
+        <v>2.37</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>8</v>
+      </c>
+      <c r="B20" s="1">
+        <v>1.34</v>
+      </c>
+      <c r="C20">
+        <v>2.06</v>
+      </c>
+      <c r="D20">
+        <v>2.08</v>
+      </c>
+      <c r="F20" t="s">
+        <v>8</v>
+      </c>
+      <c r="G20" s="1">
+        <v>2.2599999999999998</v>
+      </c>
+      <c r="H20">
+        <v>2.39</v>
+      </c>
+      <c r="I20">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="K20" t="s">
+        <v>8</v>
+      </c>
+      <c r="L20" s="1">
+        <v>0.82</v>
+      </c>
+      <c r="M20">
+        <v>1.24</v>
+      </c>
+      <c r="N20">
+        <v>3.16</v>
+      </c>
+      <c r="P20" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q20" s="1">
+        <v>1.02</v>
+      </c>
+      <c r="R20">
+        <v>1.73</v>
+      </c>
+      <c r="S20">
+        <v>2.27</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>17</v>
+      </c>
+      <c r="F21" t="s">
+        <v>24</v>
+      </c>
+      <c r="K21" t="s">
+        <v>30</v>
+      </c>
+      <c r="P21" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>6</v>
+      </c>
+      <c r="B22" s="1">
+        <v>0.71</v>
+      </c>
+      <c r="C22">
+        <v>1.52</v>
+      </c>
+      <c r="D22">
+        <v>2.0499999999999998</v>
+      </c>
+      <c r="F22" t="s">
+        <v>18</v>
+      </c>
+      <c r="G22" s="1">
+        <v>0.27</v>
+      </c>
+      <c r="H22">
+        <v>0.87</v>
+      </c>
+      <c r="I22">
+        <v>2.58</v>
+      </c>
+      <c r="K22" t="s">
+        <v>18</v>
+      </c>
+      <c r="L22" s="1">
+        <v>0.45</v>
+      </c>
+      <c r="M22">
+        <v>1.08</v>
+      </c>
+      <c r="N22">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="P22" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q22" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="R22">
+        <v>1.22</v>
+      </c>
+      <c r="S22">
+        <v>2.97</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>7</v>
+      </c>
+      <c r="B23" s="1">
+        <v>1.39</v>
+      </c>
+      <c r="C23">
+        <v>2.13</v>
+      </c>
+      <c r="D23">
+        <v>1.9</v>
+      </c>
+      <c r="F23" t="s">
+        <v>7</v>
+      </c>
+      <c r="G23" s="1">
+        <v>1.34</v>
+      </c>
+      <c r="H23">
+        <v>1.99</v>
+      </c>
+      <c r="I23">
+        <v>2.2200000000000002</v>
+      </c>
+      <c r="K23" t="s">
+        <v>6</v>
+      </c>
+      <c r="L23" s="1">
+        <v>0.38</v>
+      </c>
+      <c r="M23">
+        <v>1.8</v>
+      </c>
+      <c r="N23">
+        <v>3.06</v>
+      </c>
+      <c r="P23" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q23" s="1">
+        <v>0.38</v>
+      </c>
+      <c r="R23">
+        <v>2.31</v>
+      </c>
+      <c r="S23">
+        <v>2.37</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>8</v>
+      </c>
+      <c r="B24" s="1">
+        <v>1.32</v>
+      </c>
+      <c r="C24">
+        <v>2.0499999999999998</v>
+      </c>
+      <c r="D24">
+        <v>2.08</v>
+      </c>
+      <c r="F24" t="s">
+        <v>8</v>
+      </c>
+      <c r="G24" s="1">
+        <v>1.17</v>
+      </c>
+      <c r="H24">
+        <v>1.72</v>
+      </c>
+      <c r="I24">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="K24" t="s">
+        <v>8</v>
+      </c>
+      <c r="L24" s="1">
+        <v>0.82</v>
+      </c>
+      <c r="M24">
+        <v>1.23</v>
+      </c>
+      <c r="N24">
+        <v>3.16</v>
+      </c>
+      <c r="P24" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q24" s="1">
+        <v>0.97</v>
+      </c>
+      <c r="R24">
+        <v>1.67</v>
+      </c>
+      <c r="S24">
+        <v>2.27</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BC39F6B-3A28-428D-BC35-08C830E70D7B}">
+  <dimension ref="A1:D13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K28" sqref="K28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="8.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B2">
+        <v>0.99998348537215298</v>
+      </c>
+      <c r="C2">
+        <v>0.99999284552493795</v>
+      </c>
+      <c r="D2">
+        <v>0.99999791884248201</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B3">
+        <v>0.99999375827727299</v>
+      </c>
+      <c r="C3">
+        <v>0.99999238548801095</v>
+      </c>
+      <c r="D3">
+        <v>0.99999891561057896</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B4">
+        <v>0.99999783592717195</v>
+      </c>
+      <c r="C4">
+        <v>0.99999738695189699</v>
+      </c>
+      <c r="D4">
+        <v>0.99999968475229195</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B5">
+        <v>0.99888723087661901</v>
+      </c>
+      <c r="C5">
+        <v>0.99956452865199197</v>
+      </c>
+      <c r="D5">
+        <v>0.99995488554560996</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>45</v>
+      </c>
+      <c r="B6">
+        <v>0.99915934197243905</v>
+      </c>
+      <c r="C6">
+        <v>0.99961067348092603</v>
+      </c>
+      <c r="D6">
+        <v>0.990478171833853</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>48</v>
+      </c>
+      <c r="B7">
+        <v>0.98267962615151605</v>
+      </c>
+      <c r="C7">
+        <v>0.983953578912383</v>
+      </c>
+      <c r="D7">
+        <v>0.98914586294060702</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>39</v>
+      </c>
+      <c r="B8">
+        <v>0.99999999999699496</v>
+      </c>
+      <c r="C8">
+        <v>0.99989030191894201</v>
+      </c>
+      <c r="D8">
+        <v>0.99999989590324001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>42</v>
+      </c>
+      <c r="B9">
+        <v>0.99999999971662901</v>
+      </c>
+      <c r="C9">
+        <v>0.99999999330754497</v>
+      </c>
+      <c r="D9">
+        <v>0.99999999999961198</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>49</v>
+      </c>
+      <c r="B10">
+        <v>0.99999999683223295</v>
+      </c>
+      <c r="C10">
+        <v>0.99999999643305304</v>
+      </c>
+      <c r="D10">
+        <v>0.99999999998206102</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>40</v>
+      </c>
+      <c r="B11">
+        <v>0.99474653867210905</v>
+      </c>
+      <c r="C11" s="3">
+        <v>3.2305104971619402E-11</v>
+      </c>
+      <c r="D11">
+        <v>0.99805569777158298</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>43</v>
+      </c>
+      <c r="B12">
+        <v>0.45905561457687399</v>
+      </c>
+      <c r="C12">
+        <v>0.166769261911662</v>
+      </c>
+      <c r="D12">
+        <v>0.99959768423846895</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>46</v>
+      </c>
+      <c r="B13">
+        <v>0.796193269599486</v>
+      </c>
+      <c r="C13">
+        <v>0.137631996659586</v>
+      </c>
+      <c r="D13">
+        <v>0.99992406235053999</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>